--- a/tabelas/acoes-pura.xlsx
+++ b/tabelas/acoes-pura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Área de Trabalho\CURRICULO\ESTUDOS TECH\Imersao-Python-Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2676F-6B04-415B-A061-EF02FB3C1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8DFA7-F5EE-4162-83E9-A5CCEE902FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1057">
   <si>
     <t>Ativo</t>
   </si>
@@ -3203,6 +3203,9 @@
   </si>
   <si>
     <t>Turismo</t>
+  </si>
+  <si>
+    <t>Ano de fundação</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3336,11 +3339,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3381,6 +3395,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3617,7 +3634,7 @@
     <col min="11" max="11" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18441,7 +18458,7 @@
     <col min="2" max="2" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" s="10" t="s">
         <v>172</v>
       </c>
@@ -52972,10 +52989,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3907B0-0CCF-4F7C-98C7-D78B37305531}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -52983,9 +53000,10 @@
     <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13">
+    <row r="1" spans="1:4" ht="13">
       <c r="A1" s="20" t="s">
         <v>1011</v>
       </c>
@@ -52995,8 +53013,11 @@
       <c r="C1" s="20" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="23" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>188</v>
       </c>
@@ -53006,8 +53027,12 @@
       <c r="C2" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>2024-C2</f>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>239</v>
       </c>
@@ -53017,8 +53042,12 @@
       <c r="C3" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">2024-C3</f>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="21" t="s">
         <v>186</v>
       </c>
@@ -53028,8 +53057,12 @@
       <c r="C4" s="22">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>270</v>
       </c>
@@ -53039,8 +53072,12 @@
       <c r="C5" s="22">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
         <v>312</v>
       </c>
@@ -53050,8 +53087,12 @@
       <c r="C6" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
         <v>217</v>
       </c>
@@ -53061,8 +53102,12 @@
       <c r="C7" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
         <v>191</v>
       </c>
@@ -53072,8 +53117,12 @@
       <c r="C8" s="22">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
         <v>254</v>
       </c>
@@ -53083,8 +53132,12 @@
       <c r="C9" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
         <v>197</v>
       </c>
@@ -53094,8 +53147,12 @@
       <c r="C10" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
         <v>289</v>
       </c>
@@ -53105,8 +53162,12 @@
       <c r="C11" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
         <v>304</v>
       </c>
@@ -53116,8 +53177,12 @@
       <c r="C12" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
         <v>194</v>
       </c>
@@ -53127,8 +53192,12 @@
       <c r="C13" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
         <v>286</v>
       </c>
@@ -53138,8 +53207,12 @@
       <c r="C14" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
         <v>202</v>
       </c>
@@ -53149,8 +53222,12 @@
       <c r="C15" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
         <v>227</v>
       </c>
@@ -53160,8 +53237,12 @@
       <c r="C16" s="22">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
         <v>266</v>
       </c>
@@ -53171,8 +53252,12 @@
       <c r="C17" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
         <v>253</v>
       </c>
@@ -53182,8 +53267,12 @@
       <c r="C18" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
         <v>199</v>
       </c>
@@ -53193,8 +53282,12 @@
       <c r="C19" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
         <v>260</v>
       </c>
@@ -53204,8 +53297,12 @@
       <c r="C20" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
         <v>193</v>
       </c>
@@ -53215,8 +53312,12 @@
       <c r="C21" s="22">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="21" t="s">
         <v>228</v>
       </c>
@@ -53226,8 +53327,12 @@
       <c r="C22" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
         <v>234</v>
       </c>
@@ -53237,8 +53342,12 @@
       <c r="C23" s="22">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
         <v>219</v>
       </c>
@@ -53248,8 +53357,12 @@
       <c r="C24" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
         <v>339</v>
       </c>
@@ -53259,8 +53372,12 @@
       <c r="C25" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
         <v>216</v>
       </c>
@@ -53270,8 +53387,12 @@
       <c r="C26" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
         <v>190</v>
       </c>
@@ -53281,8 +53402,12 @@
       <c r="C27" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
         <v>285</v>
       </c>
@@ -53292,8 +53417,12 @@
       <c r="C28" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
         <v>256</v>
       </c>
@@ -53303,8 +53432,12 @@
       <c r="C29" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
         <v>273</v>
       </c>
@@ -53314,8 +53447,12 @@
       <c r="C30" s="22">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
         <v>208</v>
       </c>
@@ -53325,8 +53462,12 @@
       <c r="C31" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
         <v>299</v>
       </c>
@@ -53336,8 +53477,12 @@
       <c r="C32" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="21" t="s">
         <v>196</v>
       </c>
@@ -53347,8 +53492,12 @@
       <c r="C33" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="21" t="s">
         <v>213</v>
       </c>
@@ -53356,10 +53505,14 @@
         <v>1020</v>
       </c>
       <c r="C34" s="22">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="21" t="s">
         <v>251</v>
       </c>
@@ -53369,8 +53522,12 @@
       <c r="C35" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="21" t="s">
         <v>255</v>
       </c>
@@ -53380,8 +53537,12 @@
       <c r="C36" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="21" t="s">
         <v>303</v>
       </c>
@@ -53391,8 +53552,12 @@
       <c r="C37" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="21" t="s">
         <v>321</v>
       </c>
@@ -53402,8 +53567,12 @@
       <c r="C38" s="22">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="21" t="s">
         <v>184</v>
       </c>
@@ -53413,8 +53582,12 @@
       <c r="C39" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="21" t="s">
         <v>236</v>
       </c>
@@ -53424,8 +53597,12 @@
       <c r="C40" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="21" t="s">
         <v>233</v>
       </c>
@@ -53435,8 +53612,12 @@
       <c r="C41" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="21" t="s">
         <v>209</v>
       </c>
@@ -53444,10 +53625,14 @@
         <v>1018</v>
       </c>
       <c r="C42" s="22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="21" t="s">
         <v>235</v>
       </c>
@@ -53457,8 +53642,12 @@
       <c r="C43" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="21" t="s">
         <v>248</v>
       </c>
@@ -53468,8 +53657,12 @@
       <c r="C44" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="21" t="s">
         <v>220</v>
       </c>
@@ -53479,8 +53672,12 @@
       <c r="C45" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="21" t="s">
         <v>276</v>
       </c>
@@ -53490,8 +53687,12 @@
       <c r="C46" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="21" t="s">
         <v>322</v>
       </c>
@@ -53501,8 +53702,12 @@
       <c r="C47" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="21" t="s">
         <v>332</v>
       </c>
@@ -53512,8 +53717,12 @@
       <c r="C48" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
         <v>230</v>
       </c>
@@ -53523,8 +53732,12 @@
       <c r="C49" s="22">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="21" t="s">
         <v>288</v>
       </c>
@@ -53534,8 +53747,12 @@
       <c r="C50" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
         <v>298</v>
       </c>
@@ -53545,8 +53762,12 @@
       <c r="C51" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="21" t="s">
         <v>252</v>
       </c>
@@ -53556,8 +53777,12 @@
       <c r="C52" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
         <v>326</v>
       </c>
@@ -53567,8 +53792,12 @@
       <c r="C53" s="22">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="21" t="s">
         <v>119</v>
       </c>
@@ -53578,8 +53807,12 @@
       <c r="C54" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
         <v>302</v>
       </c>
@@ -53589,8 +53822,12 @@
       <c r="C55" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="21" t="s">
         <v>195</v>
       </c>
@@ -53600,8 +53837,12 @@
       <c r="C56" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
         <v>356</v>
       </c>
@@ -53611,8 +53852,12 @@
       <c r="C57" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="21" t="s">
         <v>357</v>
       </c>
@@ -53622,8 +53867,12 @@
       <c r="C58" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="21" t="s">
         <v>295</v>
       </c>
@@ -53633,8 +53882,12 @@
       <c r="C59" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
         <v>316</v>
       </c>
@@ -53644,8 +53897,12 @@
       <c r="C60" s="22">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
         <v>198</v>
       </c>
@@ -53655,8 +53912,12 @@
       <c r="C61" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
         <v>331</v>
       </c>
@@ -53666,8 +53927,12 @@
       <c r="C62" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="21" t="s">
         <v>307</v>
       </c>
@@ -53677,8 +53942,12 @@
       <c r="C63" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="21" t="s">
         <v>212</v>
       </c>
@@ -53688,8 +53957,12 @@
       <c r="C64" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
         <v>325</v>
       </c>
@@ -53699,8 +53972,12 @@
       <c r="C65" s="22">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
         <v>244</v>
       </c>
@@ -53710,8 +53987,12 @@
       <c r="C66" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
         <v>287</v>
       </c>
@@ -53721,8 +54002,12 @@
       <c r="C67" s="22">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" ref="D67:D79" si="1">2024-C67</f>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
         <v>200</v>
       </c>
@@ -53732,8 +54017,12 @@
       <c r="C68" s="22">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
         <v>229</v>
       </c>
@@ -53743,8 +54032,12 @@
       <c r="C69" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
         <v>187</v>
       </c>
@@ -53754,8 +54047,12 @@
       <c r="C70" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
         <v>263</v>
       </c>
@@ -53765,8 +54062,12 @@
       <c r="C71" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="21" t="s">
         <v>290</v>
       </c>
@@ -53776,8 +54077,12 @@
       <c r="C72" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="21" t="s">
         <v>185</v>
       </c>
@@ -53787,8 +54092,12 @@
       <c r="C73" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="21" t="s">
         <v>201</v>
       </c>
@@ -53798,8 +54107,12 @@
       <c r="C74" s="22">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="21" t="s">
         <v>259</v>
       </c>
@@ -53809,8 +54122,12 @@
       <c r="C75" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="21" t="s">
         <v>269</v>
       </c>
@@ -53820,8 +54137,12 @@
       <c r="C76" s="22">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="21" t="s">
         <v>203</v>
       </c>
@@ -53831,8 +54152,12 @@
       <c r="C77" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="21" t="s">
         <v>189</v>
       </c>
@@ -53842,8 +54167,12 @@
       <c r="C78" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="21" t="s">
         <v>192</v>
       </c>
@@ -53852,6 +54181,10 @@
       </c>
       <c r="C79" s="22">
         <v>20</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
